--- a/__repository/template_import/tbl_exp.xlsx
+++ b/__repository/template_import/tbl_exp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>costcenter</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>exp_level</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>rd_tot_qty</t>
   </si>
   <si>
     <t>budgettype</t>
@@ -486,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -500,15 +494,13 @@
     <col min="4" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,17 +528,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
